--- a/docs/parkingspaces.xlsx
+++ b/docs/parkingspaces.xlsx
@@ -620,7 +620,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
